--- a/backend/uploads/file_krs/krs_EE0102-19_Fisika Dasar I_A_Tahun_2016.xlsx
+++ b/backend/uploads/file_krs/krs_EE0102-19_Fisika Dasar I_A_Tahun_2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adip2\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC5A633-0B88-4A45-9B9F-BFAB4B5D071D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4B0222-F1F6-4DD3-A0E1-4806199CA293}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>UNIVERSITAS SEBELAS MARET</t>
   </si>
@@ -88,9 +88,6 @@
     <t>Adip Safiudin</t>
   </si>
   <si>
-    <t>I0716002</t>
-  </si>
-  <si>
     <t>Adrian Seta Ekananda</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t>Annisa Hanifa</t>
   </si>
   <si>
-    <t>I0716009</t>
-  </si>
-  <si>
     <t>Azis Ubaidilah</t>
   </si>
   <si>
@@ -130,9 +124,6 @@
     <t>Daniel Aquino Purba</t>
   </si>
   <si>
-    <t>I0716014</t>
-  </si>
-  <si>
     <t>Fuad Nur Kuncoro</t>
   </si>
   <si>
@@ -236,6 +227,12 @@
   </si>
   <si>
     <t>Yudhi Prabowo Kusuma</t>
+  </si>
+  <si>
+    <t>I0716102</t>
+  </si>
+  <si>
+    <t>I0716214</t>
   </si>
 </sst>
 </file>
@@ -666,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:C40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,10 +783,10 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
         <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -797,10 +794,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
         <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -808,10 +805,10 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
         <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -819,21 +816,18 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
         <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -841,10 +835,10 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -852,10 +846,10 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -863,10 +857,10 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -874,10 +868,10 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -885,10 +879,10 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -896,10 +890,10 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -907,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -918,10 +912,10 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -929,10 +923,10 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -940,10 +934,10 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -951,10 +945,10 @@
         <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -962,10 +956,10 @@
         <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -973,10 +967,10 @@
         <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -984,10 +978,10 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -995,10 +989,10 @@
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1006,10 +1000,10 @@
         <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1017,10 +1011,10 @@
         <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1028,10 +1022,10 @@
         <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1039,10 +1033,10 @@
         <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1050,10 +1044,10 @@
         <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
